--- a/DTTDEMO.xlsx
+++ b/DTTDEMO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Hotel</t>
   </si>
@@ -33,65 +33,75 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Review title</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
     <t>Supplier</t>
   </si>
   <si>
-    <t>Number of Rating</t>
-  </si>
-  <si>
-    <t>Published at</t>
-  </si>
-  <si>
     <t>Lx hotel Manchester TN</t>
   </si>
   <si>
     <t>Raye K.</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>We stayed for one night as part of our post-vaccination cross-country road trip. The room was fine -- when we came to enjoy our breakfast that we'd ordered the night before and came with the room we paid for, however... the owner berated us at breakfast because my friend did not want to dine indoors over COVID concerns. Owner demanded we sit down; friend felt threatened and fled the lobby without receiving the food we ordered. Owner continued to insult me in front of other customers (who joined in with him and called me a trouble-making "liberal"!) to try and provoke me into an argument. We've been driving across the country, and this is the only place where anyone has had an issue with our precautions. His behavior over a simple request was unacceptable, uncalled-for, and ruined an otherwise five-star stay. No amount of free beer is worth this abuse.(I was going to edit my original review after the owner called us to try and apologize, only to discover that this review was "somehow" flagged and removed before because it didn't "depict an experience". If I need to produce the pictures of the room we took because my friend was so terrified the owner might try to charge extra and accuse us of trashing the room, or an illustration of the woman the owner tried to make us sit next to -- who was wearing a "Trump 45" shirt and punctuated the owner's rantings with "Thank you, Jesus!" -- I can do so upon request.)</t>
-  </si>
-  <si>
     <t>yelp</t>
   </si>
   <si>
-    <t>We stayed for one night as part of our post-vaccination cross-country road trip. The room was fine -- when we came to enjoy our breakfast that we'd ordered the night before and came with the room we paid for, however... the owner berated us at breakfast because my friend did not want to dine indoors over COVID concerns. Owner demanded we sit down; friend felt threatened and fled the lobby without receiving the food we ordered. Owner continued to insult me in front of other customers (who joined in with him and called me a trouble-making "liberal"!) to try and provoke me into an argument. We've been driving across the country, and this is the only place where anyone has had an issue with our precautions. His behavior over a simple request was unacceptable, uncalled-for, and ruined an otherwise five-star stay. No amount of free beer is worth this abuse. (I was going to edit my original review after the owner called us to try and apologize, only to discover that this review was "somehow" flagged and removed before because it didn't "depict an experience". If I need to produce the pictures of the room we took because my friend was so terrified the owner might try to charge extra and accuse us of trashing the room, or an illustration of the woman the owner tried to make us sit next to -- who was wearing a "Trump 45" shirt and punctuated the owner's rantings with "Thank you, Jesus!" -- I can do so upon request.)</t>
-  </si>
-  <si>
     <t>This review has been removed for violating our Terms of Service</t>
   </si>
   <si>
     <t>Clair J.</t>
   </si>
   <si>
-    <t>Hospitality: 4 stars. The family is welcoming and friendly, but the man made a comment at breakfast "you better eat it all." That is kind of odd and can make someone feel pressured and uncomfortable. The complimentary drinks in lobby are nice. Room: 2 stars. A lot of "Days Inn" branding, the tv remote kept disconnecting from the tv, the couch looked old and had brown stains, there was no door seperate for the bathroom from the rest of the room, even a sliding door (I've never ever seen this before) the bathroom was pitiful and the tile floor was cracking, walls were cracking, major gaps and unevenness in the tile near the toilet. Bed was comfortable. Room felt small. Cleanliness: 4 stars. Price: 2 stars. On this trip we stayed at Hilton's and Holiday Inns and all were much nicer and the same price or LESS than this place. For the price we paid, I expected a lot more. Other: They said because of COVID, you have to eat in the lobby and you can't get up. We didn't have to do this at the other hotels. Having to text with them for food wasn't desirable. The outside is under renovation, they said it's put on hold due to COVID, but I believe contractors and services are working again so I don't quite understand that. Overall, for a one night stay when there's nothing else, it's a decent, clean place to crash. But I wouldn't stay here again personally.</t>
-  </si>
-  <si>
     <t>Kelly M.</t>
   </si>
   <si>
-    <t>The staff was extremely friendly and accommodating. They gave us a lovely goodie bag of snacks and water. The beds were clean and comfortable. But to be clear this is no 5 star hotel. It is a roadside motel that has been under construction for a long time. They have a barn-door style door on the bathroom, so essentially no privacy. For the price I paid, was expecting a lot more. Very disappointing.</t>
+    <t xml:space="preserve">Hospitality: 4 stars. </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed for one night as part of our </t>
+  </si>
+  <si>
+    <t>We stayed for one night as part of our post-vaccination cross-country road trip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was extremely friendly and accommodating. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7F0055"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,9 +124,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,13 +415,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="74.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,132 +443,127 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>44347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>44338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>44289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>44197</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
